--- a/_site/public/document/sagyo 분석.xlsx
+++ b/_site/public/document/sagyo 분석.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiseung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiseung\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\kiseung\ntz4kiseung\public\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5062EA-EEF0-40F5-88B6-B9FB3F38B726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58103E9F-A8A0-42A2-8A35-D1DAA36C62F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{4CD082A3-C0A6-45BA-B940-19186498183A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{4CD082A3-C0A6-45BA-B940-19186498183A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="634">
   <si>
     <t>AddrDTO.java</t>
   </si>
@@ -1770,38 +1770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/common/interest/{main}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/interest/{main}/{sub}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/addr/{si}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/addr/{si}/{gu}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 - 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 - 구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심사 - 대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심사 - 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -2351,6 +2319,78 @@
   </si>
   <si>
     <t>참가 신청 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 - 시 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 - 시 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 - 시 1개에 해당하는 구 중 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 - 시 1개에 해당하는 구 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/si/{si}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/si/{si}/gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/si/{si}/gu/{gu}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/interest-main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/interest-main/{interest-main}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/interest-main/{interest-main}/interest-sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/interest-main/{interest-main}/interest-sub/{interest-sub}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심사 - 대분류 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심사 - 대분류 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심사 - 대분류 1개 + 소분류들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심사 - 대분류 1개, 소분류 1개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2521,9 +2561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2595,6 +2632,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3508,10 +3548,10 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="25" t="s">
         <v>206</v>
       </c>
       <c r="I3" t="s">
@@ -3522,24 +3562,24 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="25" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3547,22 +3587,22 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -4467,2030 +4507,1990 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="23.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="32.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F39" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D52" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B53" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="D53" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H56" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B58" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B60" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B61" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B62" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B63" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="B64" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B68" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B69" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B70" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B77" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B78" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B79" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B80" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B81" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G81" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B82" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G83" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G84" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E85" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="G85" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="H85" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B87" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B88" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="C88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B89" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="C93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.45">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="10"/>
-      <c r="B66" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="10"/>
-      <c r="B67" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="10"/>
-      <c r="B71" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="C96" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.45">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H96" s="6" t="s">
+      <c r="G96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6503,1476 +6503,1555 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18199475-B546-4293-96D9-2AEB49DBB7B7}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.9140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="46" x14ac:dyDescent="0.45">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="46" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D57" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F65" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="F67" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D71" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E71" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="F71" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="F84" s="14" t="s">
         <v>469</v>
       </c>
     </row>
